--- a/data/trans_bre/PER_DISPO_VERDE-Clase-trans_bre.xlsx
+++ b/data/trans_bre/PER_DISPO_VERDE-Clase-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,53 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -105,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -500,319 +464,361 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Grupo I y II</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,57%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>-1.336047965578835</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.01566449396659625</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 3,41</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,84; 4,12</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-5.96000723010056</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.06835406753540703</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.409894930613695</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.04116015701231082</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Grupo III</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 3,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 3,91</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>-2.279847224826181</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.02573015340008545</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-7.183542907777913</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.07910513101749096</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>3.309722752718895</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03914707740979188</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Grupo IV y V</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,0; 1,18</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,33; 1,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>-6.898332096585047</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.07679430060863754</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-16.00307462915015</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1732975703498052</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1.175567979769896</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.01343459702350845</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Grupo VI</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 8,3</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 10,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>2.924701027011911</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.03364979623543658</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-2.362552621476636</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.02622144049642649</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>8.299345111459838</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.1008288166933203</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Grupo VII</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-9,02</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-10,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-18,54; 0,71</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-20,53; 0,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>-9.019868031187418</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.1034963646010128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>-18.54260485907063</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.2053029163615492</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.7074449468508089</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.006859626612922028</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>No ha trabajado</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 11,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 13,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>2.191311962318865</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.0242350433446309</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>-3.926544377399446</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.04077272634359721</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>11.31526560258019</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.1370215459113302</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 0,97</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 1,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>-1.701482335079563</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.0194778995926812</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>-4.113182280512473</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.04656614570935612</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.970620860521175</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.01118532969152956</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -820,14 +826,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
